--- a/1_Dispatcher_YR/Data/Config.xlsx
+++ b/1_Dispatcher_YR/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SBZalesky\Documents\UIpath\1_Dispatcher_YR\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SBZalesky\Documents\UiPath\1_Dispatcher_YR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C623EE5C-B0E0-4B70-AAA6-A0AE81451D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DE9867-782D-4C13-A744-B8710A4CDE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -596,15 +596,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -652,7 +652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -664,7 +664,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="29">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1727,12 +1727,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1769,7 +1769,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="29">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1894,7 +1894,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="29">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2890,12 +2890,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.90625" customWidth="1"/>
-    <col min="2" max="2" width="30.08984375" customWidth="1"/>
-    <col min="3" max="3" width="60.36328125" customWidth="1"/>
-    <col min="4" max="26" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.42578125" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
